--- a/sec2.xlsx
+++ b/sec2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="7608"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="7608" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="58">
   <si>
     <t>Name</t>
   </si>
@@ -475,6 +475,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'3'!$B$2:$B$79</c:f>
@@ -730,7 +744,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8838-40AC-B997-0128D3C645AA}"/>
+              <c16:uniqueId val="{00000001-BB3C-4701-A77B-657F66539663}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1475,27 +1489,29 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FD87C2B-D53A-40C7-B553-8AA206C67D3B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E083DE2-1555-4A42-9FF6-79BEDDF4B4C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1811,7 +1827,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
@@ -3013,7 +3029,7 @@
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3463,16 +3479,15 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3481,7 +3496,7 @@
     <col min="2" max="8" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3506,8 +3521,14 @@
       <c r="H1" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3518,27 +3539,35 @@
         <v>15</v>
       </c>
       <c r="D2" s="3">
-        <f>B2-B$42</f>
+        <f t="shared" ref="D2:D40" si="0">B2-B$42</f>
         <v>1.8846153846153868</v>
       </c>
       <c r="E2" s="3">
-        <f>C2-C$42</f>
+        <f t="shared" ref="E2:E40" si="1">C2-C$42</f>
         <v>6.4615384615384617</v>
       </c>
       <c r="F2" s="3">
-        <f t="shared" ref="F2:G33" si="0">D2^2</f>
+        <f t="shared" ref="F2:G33" si="2">D2^2</f>
         <v>3.5517751479290025</v>
       </c>
       <c r="G2" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>41.751479289940832</v>
       </c>
       <c r="H2" s="3">
-        <f t="shared" ref="H2:H33" si="1">D2*E2</f>
+        <f t="shared" ref="H2:H33" si="3">D2*E2</f>
         <v>12.177514792899423</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J2">
+        <f>(B2-B$42)/F$43</f>
+        <v>0.44616491879981951</v>
+      </c>
+      <c r="K2">
+        <f>(C2-C$42)/G$43</f>
+        <v>1.2649110640673518</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3549,27 +3578,35 @@
         <v>1</v>
       </c>
       <c r="D3" s="3">
-        <f>B3-B$42</f>
+        <f t="shared" si="0"/>
         <v>2.3846153846153868</v>
       </c>
       <c r="E3" s="3">
-        <f>C3-C$42</f>
+        <f t="shared" si="1"/>
         <v>-7.5384615384615383</v>
       </c>
       <c r="F3" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.6863905325443893</v>
       </c>
       <c r="G3" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>56.828402366863905</v>
       </c>
       <c r="H3" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-17.976331360946762</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J3">
+        <f t="shared" ref="J3:J41" si="4">(B3-B$42)/F$43</f>
+        <v>0.56453520337936336</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K40" si="5">(C3-C$42)/G$43</f>
+        <v>-1.4757295747452437</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3580,27 +3617,35 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <f>B4-B$42</f>
+        <f t="shared" si="0"/>
         <v>-5.1153846153846132</v>
       </c>
       <c r="E4" s="3">
-        <f>C4-C$42</f>
+        <f t="shared" si="1"/>
         <v>-7.5384615384615383</v>
       </c>
       <c r="F4" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>26.167159763313588</v>
       </c>
       <c r="G4" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>56.828402366863905</v>
       </c>
       <c r="H4" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>38.562130177514774</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J4">
+        <f t="shared" si="4"/>
+        <v>-1.211019065313794</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="5"/>
+        <v>-1.4757295747452437</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3611,27 +3656,35 @@
         <v>11</v>
       </c>
       <c r="D5" s="3">
-        <f>B5-B$42</f>
+        <f t="shared" si="0"/>
         <v>-0.8653846153846132</v>
       </c>
       <c r="E5" s="3">
-        <f>C5-C$42</f>
+        <f t="shared" si="1"/>
         <v>2.4615384615384617</v>
       </c>
       <c r="F5" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.74889053254437488</v>
       </c>
       <c r="G5" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.0591715976331368</v>
       </c>
       <c r="H5" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-2.1301775147928943</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J5">
+        <f t="shared" si="4"/>
+        <v>-0.20487164638767147</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="5"/>
+        <v>0.48187088154946739</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3642,27 +3695,35 @@
         <v>12</v>
       </c>
       <c r="D6" s="3">
-        <f>B6-B$42</f>
+        <f t="shared" si="0"/>
         <v>-1.3653846153846132</v>
       </c>
       <c r="E6" s="3">
-        <f>C6-C$42</f>
+        <f t="shared" si="1"/>
         <v>3.4615384615384617</v>
       </c>
       <c r="F6" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.8642751479289881</v>
       </c>
       <c r="G6" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11.98224852071006</v>
       </c>
       <c r="H6" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-4.7263313609467383</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J6">
+        <f t="shared" si="4"/>
+        <v>-0.32324193096721526</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="5"/>
+        <v>0.67763092717893847</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3673,27 +3734,35 @@
         <v>13</v>
       </c>
       <c r="D7" s="3">
-        <f>B7-B$42</f>
+        <f t="shared" si="0"/>
         <v>5.3846153846153868</v>
       </c>
       <c r="E7" s="3">
-        <f>C7-C$42</f>
+        <f t="shared" si="1"/>
         <v>4.4615384615384617</v>
       </c>
       <c r="F7" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>28.994082840236711</v>
       </c>
       <c r="G7" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>19.905325443786982</v>
       </c>
       <c r="H7" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>24.023668639053266</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J7">
+        <f t="shared" si="4"/>
+        <v>1.2747569108566261</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="5"/>
+        <v>0.8733909728084096</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3704,27 +3773,35 @@
         <v>10</v>
       </c>
       <c r="D8" s="3">
-        <f>B8-B$42</f>
+        <f t="shared" si="0"/>
         <v>-3.6153846153846132</v>
       </c>
       <c r="E8" s="3">
-        <f>C8-C$42</f>
+        <f t="shared" si="1"/>
         <v>1.4615384615384617</v>
       </c>
       <c r="F8" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>13.071005917159747</v>
       </c>
       <c r="G8" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.1360946745562135</v>
       </c>
       <c r="H8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5.2840236686390503</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J8">
+        <f t="shared" si="4"/>
+        <v>-0.85590821157516239</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="5"/>
+        <v>0.28611083591999625</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -3735,27 +3812,35 @@
         <v>14</v>
       </c>
       <c r="D9" s="3">
-        <f>B9-B$42</f>
+        <f t="shared" si="0"/>
         <v>3.3846153846153868</v>
       </c>
       <c r="E9" s="3">
-        <f>C9-C$42</f>
+        <f t="shared" si="1"/>
         <v>5.4615384615384617</v>
       </c>
       <c r="F9" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11.455621301775162</v>
       </c>
       <c r="G9" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>29.828402366863905</v>
       </c>
       <c r="H9" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>18.48520710059173</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J9">
+        <f t="shared" si="4"/>
+        <v>0.80127577253845095</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="5"/>
+        <v>1.0691510184378807</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -3766,27 +3851,35 @@
         <v>9</v>
       </c>
       <c r="D10" s="3">
-        <f>B10-B$42</f>
+        <f t="shared" si="0"/>
         <v>3.8846153846153868</v>
       </c>
       <c r="E10" s="3">
-        <f>C10-C$42</f>
+        <f t="shared" si="1"/>
         <v>0.46153846153846168</v>
       </c>
       <c r="F10" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>15.090236686390549</v>
       </c>
       <c r="G10" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.21301775147929006</v>
       </c>
       <c r="H10" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.7928994082840253</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J10">
+        <f t="shared" si="4"/>
+        <v>0.91964605711799474</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="5"/>
+        <v>9.035079029052516E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -3797,27 +3890,35 @@
         <v>10</v>
       </c>
       <c r="D11" s="3">
-        <f>B11-B$42</f>
+        <f t="shared" si="0"/>
         <v>-0.1153846153846132</v>
       </c>
       <c r="E11" s="3">
-        <f>C11-C$42</f>
+        <f t="shared" si="1"/>
         <v>1.4615384615384617</v>
       </c>
       <c r="F11" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.3313609467455117E-2</v>
       </c>
       <c r="G11" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.1360946745562135</v>
       </c>
       <c r="H11" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.16863905325443468</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J11">
+        <f t="shared" si="4"/>
+        <v>-2.7316219518355746E-2</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="5"/>
+        <v>0.28611083591999625</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3828,27 +3929,35 @@
         <v>6</v>
       </c>
       <c r="D12" s="3">
-        <f>B12-B$42</f>
+        <f t="shared" si="0"/>
         <v>-1.8653846153846132</v>
       </c>
       <c r="E12" s="3">
-        <f>C12-C$42</f>
+        <f t="shared" si="1"/>
         <v>-2.5384615384615383</v>
       </c>
       <c r="F12" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.4796597633136015</v>
       </c>
       <c r="G12" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.4437869822485201</v>
       </c>
       <c r="H12" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.73520710059171</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J12">
+        <f t="shared" si="4"/>
+        <v>-0.44161221554675911</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="5"/>
+        <v>-0.49692934659788818</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3859,27 +3968,35 @@
         <v>8</v>
       </c>
       <c r="D13" s="3">
-        <f>B13-B$42</f>
+        <f t="shared" si="0"/>
         <v>-10.615384615384613</v>
       </c>
       <c r="E13" s="3">
-        <f>C13-C$42</f>
+        <f t="shared" si="1"/>
         <v>-0.53846153846153832</v>
       </c>
       <c r="F13" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>112.68639053254434</v>
       </c>
       <c r="G13" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.28994082840236673</v>
       </c>
       <c r="H13" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.7159763313609444</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J13">
+        <f t="shared" si="4"/>
+        <v>-2.5130921956887757</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="5"/>
+        <v>-0.10540925533894596</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3890,27 +4007,35 @@
         <v>12</v>
       </c>
       <c r="D14" s="3">
-        <f>B14-B$42</f>
+        <f t="shared" si="0"/>
         <v>-2.8653846153846132</v>
       </c>
       <c r="E14" s="3">
-        <f>C14-C$42</f>
+        <f t="shared" si="1"/>
         <v>3.4615384615384617</v>
       </c>
       <c r="F14" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.210428994082827</v>
       </c>
       <c r="G14" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11.98224852071006</v>
       </c>
       <c r="H14" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-9.9186390532544308</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J14">
+        <f t="shared" si="4"/>
+        <v>-0.6783527847058467</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="5"/>
+        <v>0.67763092717893847</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -3921,27 +4046,35 @@
         <v>3</v>
       </c>
       <c r="D15" s="3">
-        <f>B15-B$42</f>
+        <f t="shared" si="0"/>
         <v>0.8846153846153868</v>
       </c>
       <c r="E15" s="3">
-        <f>C15-C$42</f>
+        <f t="shared" si="1"/>
         <v>-5.5384615384615383</v>
       </c>
       <c r="F15" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.78254437869822868</v>
       </c>
       <c r="G15" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>30.674556213017748</v>
       </c>
       <c r="H15" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-4.8994082840236803</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J15">
+        <f t="shared" si="4"/>
+        <v>0.20942434964073189</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="5"/>
+        <v>-1.0842094834863014</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -3952,27 +4085,35 @@
         <v>1</v>
       </c>
       <c r="D16" s="3">
-        <f>B16-B$42</f>
+        <f t="shared" si="0"/>
         <v>-3.6153846153846132</v>
       </c>
       <c r="E16" s="3">
-        <f>C16-C$42</f>
+        <f t="shared" si="1"/>
         <v>-7.5384615384615383</v>
       </c>
       <c r="F16" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>13.071005917159747</v>
       </c>
       <c r="G16" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>56.828402366863905</v>
       </c>
       <c r="H16" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>27.254437869822468</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J16">
+        <f t="shared" si="4"/>
+        <v>-0.85590821157516239</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="5"/>
+        <v>-1.4757295747452437</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -3983,27 +4124,35 @@
         <v>13</v>
       </c>
       <c r="D17" s="3">
-        <f>B17-B$42</f>
+        <f t="shared" si="0"/>
         <v>-4.1153846153846132</v>
       </c>
       <c r="E17" s="3">
-        <f>C17-C$42</f>
+        <f t="shared" si="1"/>
         <v>4.4615384615384617</v>
       </c>
       <c r="F17" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>16.936390532544362</v>
       </c>
       <c r="G17" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>19.905325443786982</v>
       </c>
       <c r="H17" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-18.360946745562121</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J17">
+        <f t="shared" si="4"/>
+        <v>-0.9742784961547063</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="5"/>
+        <v>0.8733909728084096</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -4014,27 +4163,35 @@
         <v>10</v>
       </c>
       <c r="D18" s="3">
-        <f>B18-B$42</f>
+        <f t="shared" si="0"/>
         <v>3.8846153846153868</v>
       </c>
       <c r="E18" s="3">
-        <f>C18-C$42</f>
+        <f t="shared" si="1"/>
         <v>1.4615384615384617</v>
       </c>
       <c r="F18" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>15.090236686390549</v>
       </c>
       <c r="G18" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.1360946745562135</v>
       </c>
       <c r="H18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.6775147928994123</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J18">
+        <f t="shared" si="4"/>
+        <v>0.91964605711799474</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="5"/>
+        <v>0.28611083591999625</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -4045,27 +4202,35 @@
         <v>2</v>
       </c>
       <c r="D19" s="3">
-        <f>B19-B$42</f>
+        <f t="shared" si="0"/>
         <v>4.6346153846153868</v>
       </c>
       <c r="E19" s="3">
-        <f>C19-C$42</f>
+        <f t="shared" si="1"/>
         <v>-6.5384615384615383</v>
       </c>
       <c r="F19" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>21.479659763313631</v>
       </c>
       <c r="G19" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>42.751479289940825</v>
       </c>
       <c r="H19" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-30.303254437869835</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J19">
+        <f t="shared" si="4"/>
+        <v>1.0972014839873105</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="5"/>
+        <v>-1.2799695291157727</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -4076,27 +4241,35 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <f>B20-B$42</f>
+        <f t="shared" si="0"/>
         <v>2.1346153846153868</v>
       </c>
       <c r="E20" s="3">
-        <f>C20-C$42</f>
+        <f t="shared" si="1"/>
         <v>6.4615384615384617</v>
       </c>
       <c r="F20" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.5565828402366959</v>
       </c>
       <c r="G20" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>41.751479289940832</v>
       </c>
       <c r="H20" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>13.792899408284038</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J20">
+        <f t="shared" si="4"/>
+        <v>0.50535006108959146</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="5"/>
+        <v>1.2649110640673518</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -4107,27 +4280,35 @@
         <v>2</v>
       </c>
       <c r="D21" s="3">
-        <f>B21-B$42</f>
+        <f t="shared" si="0"/>
         <v>0.6346153846153868</v>
       </c>
       <c r="E21" s="3">
-        <f>C21-C$42</f>
+        <f t="shared" si="1"/>
         <v>-6.5384615384615383</v>
       </c>
       <c r="F21" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.40273668639053534</v>
       </c>
       <c r="G21" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>42.751479289940825</v>
       </c>
       <c r="H21" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-4.149408284023683</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J21">
+        <f t="shared" si="4"/>
+        <v>0.15023920735095997</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="5"/>
+        <v>-1.2799695291157727</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -4138,27 +4319,35 @@
         <v>13</v>
       </c>
       <c r="D22" s="3">
-        <f>B22-B$42</f>
+        <f t="shared" si="0"/>
         <v>-1.1153846153846132</v>
       </c>
       <c r="E22" s="3">
-        <f>C22-C$42</f>
+        <f t="shared" si="1"/>
         <v>4.4615384615384617</v>
       </c>
       <c r="F22" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.2440828402366815</v>
       </c>
       <c r="G22" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>19.905325443786982</v>
       </c>
       <c r="H22" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-4.9763313609467357</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J22">
+        <f t="shared" si="4"/>
+        <v>-0.26405678867744337</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="5"/>
+        <v>0.8733909728084096</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -4169,27 +4358,35 @@
         <v>14</v>
       </c>
       <c r="D23" s="3">
-        <f>B23-B$42</f>
+        <f t="shared" si="0"/>
         <v>4.3846153846153868</v>
       </c>
       <c r="E23" s="3">
-        <f>C23-C$42</f>
+        <f t="shared" si="1"/>
         <v>5.4615384615384617</v>
       </c>
       <c r="F23" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>19.224852071005937</v>
       </c>
       <c r="G23" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>29.828402366863905</v>
       </c>
       <c r="H23" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>23.946745562130189</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J23">
+        <f t="shared" si="4"/>
+        <v>1.0380163416975385</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="5"/>
+        <v>1.0691510184378807</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -4200,27 +4397,35 @@
         <v>13</v>
       </c>
       <c r="D24" s="3">
-        <f>B24-B$42</f>
+        <f t="shared" si="0"/>
         <v>1.6346153846153868</v>
       </c>
       <c r="E24" s="3">
-        <f>C24-C$42</f>
+        <f t="shared" si="1"/>
         <v>4.4615384615384617</v>
       </c>
       <c r="F24" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.6719674556213091</v>
       </c>
       <c r="G24" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>19.905325443786982</v>
       </c>
       <c r="H24" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.2928994082840335</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J24">
+        <f t="shared" si="4"/>
+        <v>0.38697977651004761</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="5"/>
+        <v>0.8733909728084096</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -4231,27 +4436,35 @@
         <v>9</v>
       </c>
       <c r="D25" s="3">
-        <f>B25-B$42</f>
+        <f t="shared" si="0"/>
         <v>-3.6153846153846132</v>
       </c>
       <c r="E25" s="3">
-        <f>C25-C$42</f>
+        <f t="shared" si="1"/>
         <v>0.46153846153846168</v>
       </c>
       <c r="F25" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>13.071005917159747</v>
       </c>
       <c r="G25" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.21301775147929006</v>
       </c>
       <c r="H25" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-1.6686390532544373</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J25">
+        <f t="shared" si="4"/>
+        <v>-0.85590821157516239</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="5"/>
+        <v>9.035079029052516E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -4262,27 +4475,35 @@
         <v>1</v>
       </c>
       <c r="D26" s="3">
-        <f>B26-B$42</f>
+        <f t="shared" si="0"/>
         <v>-4.1153846153846132</v>
       </c>
       <c r="E26" s="3">
-        <f>C26-C$42</f>
+        <f t="shared" si="1"/>
         <v>-7.5384615384615383</v>
       </c>
       <c r="F26" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>16.936390532544362</v>
       </c>
       <c r="G26" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>56.828402366863905</v>
       </c>
       <c r="H26" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>31.023668639053238</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J26">
+        <f t="shared" si="4"/>
+        <v>-0.9742784961547063</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="5"/>
+        <v>-1.4757295747452437</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -4293,27 +4514,35 @@
         <v>15</v>
       </c>
       <c r="D27" s="3">
-        <f>B27-B$42</f>
+        <f t="shared" si="0"/>
         <v>-0.6153846153846132</v>
       </c>
       <c r="E27" s="3">
-        <f>C27-C$42</f>
+        <f t="shared" si="1"/>
         <v>6.4615384615384617</v>
       </c>
       <c r="F27" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.37869822485206833</v>
       </c>
       <c r="G27" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>41.751479289940832</v>
       </c>
       <c r="H27" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-3.9763313609467317</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J27">
+        <f t="shared" si="4"/>
+        <v>-0.14568650409789957</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="5"/>
+        <v>1.2649110640673518</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -4324,27 +4553,35 @@
         <v>1</v>
       </c>
       <c r="D28" s="3">
-        <f>B28-B$42</f>
+        <f t="shared" si="0"/>
         <v>8.1346153846153868</v>
       </c>
       <c r="E28" s="3">
-        <f>C28-C$42</f>
+        <f t="shared" si="1"/>
         <v>-7.5384615384615383</v>
       </c>
       <c r="F28" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>66.171967455621342</v>
       </c>
       <c r="G28" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>56.828402366863905</v>
       </c>
       <c r="H28" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-61.322485207100605</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J28">
+        <f t="shared" si="4"/>
+        <v>1.9257934760441171</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="5"/>
+        <v>-1.4757295747452437</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -4355,27 +4592,35 @@
         <v>10</v>
       </c>
       <c r="D29" s="3">
-        <f>B29-B$42</f>
+        <f t="shared" si="0"/>
         <v>6.8846153846153868</v>
       </c>
       <c r="E29" s="3">
-        <f>C29-C$42</f>
+        <f t="shared" si="1"/>
         <v>1.4615384615384617</v>
       </c>
       <c r="F29" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>47.397928994082868</v>
       </c>
       <c r="G29" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.1360946745562135</v>
       </c>
       <c r="H29" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10.062130177514797</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J29">
+        <f t="shared" si="4"/>
+        <v>1.6298677645952577</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="5"/>
+        <v>0.28611083591999625</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -4386,27 +4631,35 @@
         <v>2</v>
       </c>
       <c r="D30" s="3">
-        <f>B30-B$42</f>
+        <f t="shared" si="0"/>
         <v>-4.8653846153846132</v>
       </c>
       <c r="E30" s="3">
-        <f>C30-C$42</f>
+        <f t="shared" si="1"/>
         <v>-6.5384615384615383</v>
       </c>
       <c r="F30" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>23.671967455621282</v>
       </c>
       <c r="G30" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>42.751479289940825</v>
       </c>
       <c r="H30" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>31.812130177514778</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J30">
+        <f t="shared" si="4"/>
+        <v>-1.151833923024022</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="5"/>
+        <v>-1.2799695291157727</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -4417,27 +4670,35 @@
         <v>2</v>
       </c>
       <c r="D31" s="3">
-        <f>B31-B$42</f>
+        <f t="shared" si="0"/>
         <v>7.6346153846153868</v>
       </c>
       <c r="E31" s="3">
-        <f>C31-C$42</f>
+        <f t="shared" si="1"/>
         <v>-6.5384615384615383</v>
       </c>
       <c r="F31" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>58.287352071005948</v>
       </c>
       <c r="G31" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>42.751479289940825</v>
       </c>
       <c r="H31" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-49.918639053254452</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J31">
+        <f t="shared" si="4"/>
+        <v>1.8074231914645733</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="5"/>
+        <v>-1.2799695291157727</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -4448,27 +4709,35 @@
         <v>7</v>
       </c>
       <c r="D32" s="3">
-        <f>B32-B$42</f>
+        <f t="shared" si="0"/>
         <v>2.8846153846153868</v>
       </c>
       <c r="E32" s="3">
-        <f>C32-C$42</f>
+        <f t="shared" si="1"/>
         <v>-1.5384615384615383</v>
       </c>
       <c r="F32" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.3210059171597752</v>
       </c>
       <c r="G32" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.3668639053254434</v>
       </c>
       <c r="H32" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-4.4378698224852098</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J32">
+        <f t="shared" si="4"/>
+        <v>0.68290548795890715</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="5"/>
+        <v>-0.30116930096841704</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -4479,27 +4748,35 @@
         <v>12</v>
       </c>
       <c r="D33" s="3">
-        <f>B33-B$42</f>
+        <f t="shared" si="0"/>
         <v>-7.1153846153846132</v>
       </c>
       <c r="E33" s="3">
-        <f>C33-C$42</f>
+        <f t="shared" si="1"/>
         <v>3.4615384615384617</v>
       </c>
       <c r="F33" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>50.628698224852037</v>
       </c>
       <c r="G33" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11.98224852071006</v>
       </c>
       <c r="H33" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-24.630177514792894</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J33">
+        <f t="shared" si="4"/>
+        <v>-1.6845002036319692</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="5"/>
+        <v>0.67763092717893847</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -4510,27 +4787,35 @@
         <v>2</v>
       </c>
       <c r="D34" s="3">
-        <f>B34-B$42</f>
+        <f t="shared" si="0"/>
         <v>0.1346153846153868</v>
       </c>
       <c r="E34" s="3">
-        <f>C34-C$42</f>
+        <f t="shared" si="1"/>
         <v>-6.5384615384615383</v>
       </c>
       <c r="F34" s="3">
-        <f t="shared" ref="F34:G40" si="2">D34^2</f>
+        <f t="shared" ref="F34:G40" si="6">D34^2</f>
         <v>1.8121301775148518E-2</v>
       </c>
       <c r="G34" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>42.751479289940825</v>
       </c>
       <c r="H34" s="3">
-        <f t="shared" ref="H34:H40" si="3">D34*E34</f>
+        <f t="shared" ref="H34:H40" si="7">D34*E34</f>
         <v>-0.88017751479291373</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J34">
+        <f t="shared" si="4"/>
+        <v>3.1868922771416161E-2</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="5"/>
+        <v>-1.2799695291157727</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -4541,27 +4826,35 @@
         <v>10</v>
       </c>
       <c r="D35" s="3">
-        <f>B35-B$42</f>
+        <f t="shared" si="0"/>
         <v>-4.6153846153846132</v>
       </c>
       <c r="E35" s="3">
-        <f>C35-C$42</f>
+        <f t="shared" si="1"/>
         <v>1.4615384615384617</v>
       </c>
       <c r="F35" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>21.301775147928975</v>
       </c>
       <c r="G35" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.1360946745562135</v>
       </c>
       <c r="H35" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-6.7455621301775119</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J35">
+        <f t="shared" si="4"/>
+        <v>-1.09264878073425</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="5"/>
+        <v>0.28611083591999625</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -4572,27 +4865,35 @@
         <v>15</v>
       </c>
       <c r="D36" s="3">
-        <f>B36-B$42</f>
+        <f t="shared" si="0"/>
         <v>0.6346153846153868</v>
       </c>
       <c r="E36" s="3">
-        <f>C36-C$42</f>
+        <f t="shared" si="1"/>
         <v>6.4615384615384617</v>
       </c>
       <c r="F36" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.40273668639053534</v>
       </c>
       <c r="G36" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>41.751479289940832</v>
       </c>
       <c r="H36" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>4.1005917159763454</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J36">
+        <f t="shared" si="4"/>
+        <v>0.15023920735095997</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="5"/>
+        <v>1.2649110640673518</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -4603,27 +4904,35 @@
         <v>10</v>
       </c>
       <c r="D37" s="3">
-        <f>B37-B$42</f>
+        <f t="shared" si="0"/>
         <v>-1.6153846153846132</v>
       </c>
       <c r="E37" s="3">
-        <f>C37-C$42</f>
+        <f t="shared" si="1"/>
         <v>1.4615384615384617</v>
       </c>
       <c r="F37" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.6094674556212949</v>
       </c>
       <c r="G37" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.1360946745562135</v>
       </c>
       <c r="H37" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-2.3609467455621274</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J37">
+        <f t="shared" si="4"/>
+        <v>-0.38242707325698722</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="5"/>
+        <v>0.28611083591999625</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -4634,27 +4943,35 @@
         <v>15</v>
       </c>
       <c r="D38" s="3">
-        <f>B38-B$42</f>
+        <f t="shared" si="0"/>
         <v>6.1346153846153868</v>
       </c>
       <c r="E38" s="3">
-        <f>C38-C$42</f>
+        <f t="shared" si="1"/>
         <v>6.4615384615384617</v>
       </c>
       <c r="F38" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>37.633505917159788</v>
       </c>
       <c r="G38" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>41.751479289940832</v>
       </c>
       <c r="H38" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>39.639053254437883</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J38">
+        <f t="shared" si="4"/>
+        <v>1.4523123377259419</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="5"/>
+        <v>1.2649110640673518</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -4665,27 +4982,35 @@
         <v>13</v>
       </c>
       <c r="D39" s="3">
-        <f>B39-B$42</f>
+        <f t="shared" si="0"/>
         <v>-4.6153846153846132</v>
       </c>
       <c r="E39" s="3">
-        <f>C39-C$42</f>
+        <f t="shared" si="1"/>
         <v>4.4615384615384617</v>
       </c>
       <c r="F39" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>21.301775147928975</v>
       </c>
       <c r="G39" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>19.905325443786982</v>
       </c>
       <c r="H39" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-20.591715976331351</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J39">
+        <f t="shared" si="4"/>
+        <v>-1.09264878073425</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="5"/>
+        <v>0.8733909728084096</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -4696,93 +5021,117 @@
         <v>1</v>
       </c>
       <c r="D40" s="3">
-        <f>B40-B$42</f>
+        <f t="shared" si="0"/>
         <v>-1.1153846153846132</v>
       </c>
       <c r="E40" s="3">
-        <f>C40-C$42</f>
+        <f t="shared" si="1"/>
         <v>-7.5384615384615383</v>
       </c>
       <c r="F40" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.2440828402366815</v>
       </c>
       <c r="G40" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>56.828402366863905</v>
       </c>
       <c r="H40" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>8.4082840236686227</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J40">
+        <f t="shared" si="4"/>
+        <v>-0.26405678867744337</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="5"/>
+        <v>-1.4757295747452437</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B41" s="3">
-        <f>SUM(B2:B40)</f>
+        <f t="shared" ref="B41:K41" si="8">SUM(B2:B40)</f>
         <v>3202.5</v>
       </c>
       <c r="C41" s="3">
-        <f>SUM(C2:C40)</f>
+        <f t="shared" si="8"/>
         <v>333</v>
       </c>
       <c r="D41" s="3">
-        <f>SUM(D2:D40)</f>
+        <f t="shared" si="8"/>
         <v>8.5265128291212022E-14</v>
       </c>
       <c r="E41" s="3">
-        <f>SUM(E2:E40)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F41" s="3">
-        <f>SUM(F2:F40)</f>
+        <f t="shared" si="8"/>
         <v>695.8557692307694</v>
       </c>
       <c r="G41" s="3">
-        <f>SUM(G2:G40)</f>
+        <f t="shared" si="8"/>
         <v>1017.6923076923075</v>
       </c>
       <c r="H41" s="3">
-        <f>SUM(H2:H40)</f>
+        <f t="shared" si="8"/>
         <v>29.076923076923045</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J41" s="3">
+        <f t="shared" si="8"/>
+        <v>1.9817480989559044E-14</v>
+      </c>
+      <c r="K41" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B42" s="3">
-        <f>B41/COUNT(B2:B40)</f>
+        <f t="shared" ref="B42:K42" si="9">B41/COUNT(B2:B40)</f>
         <v>82.115384615384613</v>
       </c>
       <c r="C42" s="3">
-        <f>C41/COUNT(C2:C40)</f>
+        <f t="shared" si="9"/>
         <v>8.5384615384615383</v>
       </c>
       <c r="D42" s="3">
-        <f>D41/COUNT(D2:D40)</f>
+        <f t="shared" si="9"/>
         <v>2.1862853408003084E-15</v>
       </c>
       <c r="E42" s="3">
-        <f>E41/COUNT(E2:E40)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F42" s="3">
-        <f>F41/COUNT(F2:F40)</f>
+        <f t="shared" si="9"/>
         <v>17.842455621301781</v>
       </c>
       <c r="G42" s="3">
-        <f>G41/COUNT(G2:G40)</f>
+        <f t="shared" si="9"/>
         <v>26.094674556213015</v>
       </c>
       <c r="H42" s="3">
-        <f>H41/COUNT(H2:H40)</f>
+        <f t="shared" si="9"/>
         <v>0.74556213017751394</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J42" s="3">
+        <f t="shared" si="9"/>
+        <v>5.0814053819382162E-16</v>
+      </c>
+      <c r="K42" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E43" s="2" t="s">
         <v>49</v>
       </c>
@@ -4799,7 +5148,7 @@
         <v>3.455258829726135E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H44">
         <f>CORREL(B2:B40, C2:C40)</f>
         <v>3.455258829726135E-2</v>
@@ -4807,5 +5156,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>